--- a/artfynd/A 3755-2023.xlsx
+++ b/artfynd/A 3755-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3869004</v>
+        <v>62344048</v>
       </c>
       <c r="B2" t="n">
         <v>103427</v>
@@ -709,16 +709,10 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Korpåsen, Per-Svens, Hls</t>
@@ -731,7 +725,7 @@
         <v>6900123.887578635</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,14 +747,9 @@
           <t>Hassela</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>XH-Nor-0028</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2004-08-22</t>
+          <t>2016-08-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -770,7 +759,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2004-08-22</t>
+          <t>2016-08-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,11 +769,11 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ohävdad äng, ca 15 m väster om lada</t>
+          <t>övergivet finntorp med f.d. ängsmark, V om liten lada, troligen utgången, ohävdat sedan länge, senblommande</t>
         </is>
       </c>
       <c r="AD2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
@@ -792,22 +781,23 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>ohävdad ängsmark</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Margareta Edqvist</t>
+          <t>Tomas Troschke</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Bengt Stridh</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
